--- a/UI/ResultsProcessing.xlsx
+++ b/UI/ResultsProcessing.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c428646eea5c9a29/Documenten/GitHub/BEP/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{CB2FC96E-FBDA-4248-A950-D44D1E131E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F561A805-7CD1-4879-BA8E-85B0CD71C606}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{CB2FC96E-FBDA-4248-A950-D44D1E131E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3134B093-C553-4056-9F73-8BAEDD84A09D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90149D56-DCD2-4254-8DF1-8BE819A26002}"/>
   </bookViews>
@@ -175,7 +175,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2094,9 +2094,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72680511811023607"/>
+          <c:x val="0.69069400699912509"/>
           <c:y val="0.18053414786083022"/>
-          <c:w val="0.246000656167979"/>
+          <c:w val="0.26266732283464567"/>
           <c:h val="0.16322844974414277"/>
         </c:manualLayout>
       </c:layout>
@@ -2265,7 +2265,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4250,7 +4250,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0042D6"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -4259,14 +4259,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="0042D6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7893,8 +7893,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4821090" y="787956"/>
-          <a:ext cx="4579103" cy="5234865"/>
+          <a:off x="4821090" y="794373"/>
+          <a:ext cx="4579103" cy="5279783"/>
           <a:chOff x="12304699" y="2333792"/>
           <a:chExt cx="4579103" cy="5234865"/>
         </a:xfrm>
@@ -7955,12 +7955,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
+      <sheetName val="Production"/>
+      <sheetName val="MPPT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
             <v>0</v>
@@ -11588,6 +11588,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11596,7 +11598,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 4">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11604,34 +11606,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="17406D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DBEFF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="0042D6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="1A9A00"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="B76C00"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="94F6DB"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="7CCA62"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="A5C249"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="F49100"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="85DFD0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -12178,8 +12180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648FC2D-882B-4B94-8789-66B7BA4358BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
